--- a/output/1Y_P16_KFSDIV.xlsx
+++ b/output/1Y_P16_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>11.8576</v>
       </c>
       <c r="C2" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D2" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>843.341</v>
+        <v>841.6517</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.5699</v>
       </c>
       <c r="C3" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E3" s="1">
-        <v>843.341</v>
+        <v>841.6517</v>
       </c>
       <c r="F3" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="H3" s="1">
-        <v>10600.7118</v>
+        <v>10558.3517</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10600.7118</v>
+        <v>10558.3517</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0601</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>13.5994</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E4" s="1">
-        <v>1638.8923</v>
+        <v>1635.6112</v>
       </c>
       <c r="F4" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="H4" s="1">
-        <v>22287.9514</v>
+        <v>22198.8425</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>22287.9514</v>
+        <v>22198.8425</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.2034</v>
+        <v>12.2278</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>379.5034</v>
+        <v>378.7432</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9620.4966</v>
+        <v>-9621.256799999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0819</v>
+        <v>0.0798</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>14.6663</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E5" s="1">
-        <v>2374.2188</v>
+        <v>2369.47</v>
       </c>
       <c r="F5" s="1">
-        <v>684.7103</v>
+        <v>683.3348</v>
       </c>
       <c r="H5" s="1">
-        <v>34821.0054</v>
+        <v>34681.9322</v>
       </c>
       <c r="I5" s="1">
-        <v>379.5034</v>
+        <v>378.7432</v>
       </c>
       <c r="J5" s="1">
-        <v>35200.5089</v>
+        <v>35060.6755</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.6357</v>
+        <v>12.6611</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10042.167</v>
+        <v>-10042.0826</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0902</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>14.701</v>
       </c>
       <c r="C6" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D6" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E6" s="1">
-        <v>3058.9291</v>
+        <v>3052.8047</v>
       </c>
       <c r="F6" s="1">
-        <v>683.0941</v>
+        <v>681.7204</v>
       </c>
       <c r="H6" s="1">
-        <v>44969.3173</v>
+        <v>44789.5301</v>
       </c>
       <c r="I6" s="1">
-        <v>337.3364</v>
+        <v>336.6607</v>
       </c>
       <c r="J6" s="1">
-        <v>45306.6537</v>
+        <v>45126.1908</v>
       </c>
       <c r="K6" s="1">
-        <v>40042.167</v>
+        <v>40042.0826</v>
       </c>
       <c r="L6" s="1">
-        <v>13.0903</v>
+        <v>13.1165</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10042.167</v>
+        <v>-10042.0826</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0023</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>13.8109</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E7" s="1">
-        <v>3742.0233</v>
+        <v>3734.5252</v>
       </c>
       <c r="F7" s="1">
-        <v>727.1189000000001</v>
+        <v>725.6574000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>51680.7094</v>
+        <v>51474.0807</v>
       </c>
       <c r="I7" s="1">
-        <v>295.1693</v>
+        <v>294.5781</v>
       </c>
       <c r="J7" s="1">
-        <v>51975.8788</v>
+        <v>51768.6587</v>
       </c>
       <c r="K7" s="1">
-        <v>50084.3341</v>
+        <v>50084.1652</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3843</v>
+        <v>13.4111</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2753.0362</v>
+        <v>2747.5243</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7289.1308</v>
+        <v>-7294.5583</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0602</v>
+        <v>-0.0609</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>13.9322</v>
       </c>
       <c r="C8" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D8" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E8" s="1">
-        <v>4469.1422</v>
+        <v>4460.1826</v>
       </c>
       <c r="F8" s="1">
-        <v>753.7221</v>
+        <v>752.1438000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>62264.9834</v>
+        <v>62015.7165</v>
       </c>
       <c r="I8" s="1">
-        <v>3006.0385</v>
+        <v>3000.0198</v>
       </c>
       <c r="J8" s="1">
-        <v>65271.0219</v>
+        <v>65015.7362</v>
       </c>
       <c r="K8" s="1">
-        <v>60126.5011</v>
+        <v>60126.2477</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4537</v>
+        <v>13.4807</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10501.0064</v>
+        <v>-10500.0033</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0532</v>
+        <v>0.0526</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>12.5846</v>
       </c>
       <c r="C9" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D9" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E9" s="1">
-        <v>5222.8643</v>
+        <v>5212.3264</v>
       </c>
       <c r="F9" s="1">
-        <v>834.4331</v>
+        <v>832.686</v>
       </c>
       <c r="H9" s="1">
-        <v>65727.65790000001</v>
+        <v>65463.6924</v>
       </c>
       <c r="I9" s="1">
-        <v>2505.0321</v>
+        <v>2500.0165</v>
       </c>
       <c r="J9" s="1">
-        <v>68232.69</v>
+        <v>67963.70879999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70627.5076</v>
+        <v>70626.251</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5228</v>
+        <v>13.5499</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10501.0064</v>
+        <v>-10500.0033</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0935</v>
+        <v>-0.094</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>12.2867</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E10" s="1">
-        <v>6057.2974</v>
+        <v>6045.0124</v>
       </c>
       <c r="F10" s="1">
-        <v>854.6645</v>
+        <v>852.8753</v>
       </c>
       <c r="H10" s="1">
-        <v>74424.1955</v>
+        <v>74124.54610000001</v>
       </c>
       <c r="I10" s="1">
-        <v>2004.0257</v>
+        <v>2000.0132</v>
       </c>
       <c r="J10" s="1">
-        <v>76428.2211</v>
+        <v>76124.55929999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81128.514</v>
+        <v>81126.2543</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3935</v>
+        <v>13.4204</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2350.2889</v>
+        <v>2345.5469</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8150.7175</v>
+        <v>-8154.4564</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0231</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>13.0645</v>
       </c>
       <c r="C11" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D11" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E11" s="1">
-        <v>6911.9619</v>
+        <v>6897.8876</v>
       </c>
       <c r="F11" s="1">
-        <v>863.748</v>
+        <v>861.8219</v>
       </c>
       <c r="H11" s="1">
-        <v>90301.32580000001</v>
+        <v>89937.4181</v>
       </c>
       <c r="I11" s="1">
-        <v>3853.3082</v>
+        <v>3845.5568</v>
       </c>
       <c r="J11" s="1">
-        <v>94154.63400000001</v>
+        <v>93782.9749</v>
       </c>
       <c r="K11" s="1">
-        <v>91629.52039999999</v>
+        <v>91626.2576</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2567</v>
+        <v>13.2832</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11284.4361</v>
+        <v>-11281.8523</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.08939999999999999</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>13.8083</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E12" s="1">
-        <v>7775.7099</v>
+        <v>7759.7096</v>
       </c>
       <c r="F12" s="1">
-        <v>817.2212</v>
+        <v>815.3984</v>
       </c>
       <c r="H12" s="1">
-        <v>107369.3349</v>
+        <v>106934.2295</v>
       </c>
       <c r="I12" s="1">
-        <v>2568.8721</v>
+        <v>2563.7045</v>
       </c>
       <c r="J12" s="1">
-        <v>109938.207</v>
+        <v>109497.934</v>
       </c>
       <c r="K12" s="1">
-        <v>102913.9565</v>
+        <v>102908.1099</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2353</v>
+        <v>13.2619</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11284.4361</v>
+        <v>-11281.8523</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0555</v>
+        <v>0.0551</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>13.5636</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E13" s="1">
-        <v>8592.9311</v>
+        <v>8575.108</v>
       </c>
       <c r="F13" s="1">
-        <v>831.9647</v>
+        <v>830.1095</v>
       </c>
       <c r="H13" s="1">
-        <v>116551.0807</v>
+        <v>116076.9488</v>
       </c>
       <c r="I13" s="1">
-        <v>1284.4361</v>
+        <v>1281.8523</v>
       </c>
       <c r="J13" s="1">
-        <v>117835.5168</v>
+        <v>117358.8011</v>
       </c>
       <c r="K13" s="1">
-        <v>114198.3925</v>
+        <v>114189.9621</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2898</v>
+        <v>13.3164</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3499.0695</v>
+        <v>3491.8693</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7785.3666</v>
+        <v>-7789.983</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0175</v>
+        <v>-0.0179</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>13.1788</v>
       </c>
       <c r="C14" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D14" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E14" s="1">
-        <v>9424.8958</v>
+        <v>9405.217500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9424.8958</v>
+        <v>-9405.217500000001</v>
       </c>
       <c r="H14" s="1">
-        <v>124208.8169</v>
+        <v>123701.1821</v>
       </c>
       <c r="I14" s="1">
-        <v>3499.0695</v>
+        <v>3491.8693</v>
       </c>
       <c r="J14" s="1">
-        <v>127707.8863</v>
+        <v>127193.0514</v>
       </c>
       <c r="K14" s="1">
-        <v>125482.8286</v>
+        <v>125471.8144</v>
       </c>
       <c r="L14" s="1">
-        <v>13.314</v>
+        <v>13.3407</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124208.8169</v>
+        <v>123701.1821</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.001</v>
+        <v>-0.0013</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>11.8576</v>
       </c>
       <c r="C2" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D2" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>843.341</v>
+        <v>841.6517</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.5699</v>
       </c>
       <c r="C3" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E3" s="1">
-        <v>843.341</v>
+        <v>841.6517</v>
       </c>
       <c r="F3" s="1">
-        <v>747.7616</v>
+        <v>752.6344</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10600.7118</v>
+        <v>10558.3517</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10600.7118</v>
+        <v>10558.3517</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9399.288200000001</v>
+        <v>-9479.505800000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0601</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>13.5994</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E4" s="1">
-        <v>1591.1026</v>
+        <v>1594.2861</v>
       </c>
       <c r="F4" s="1">
-        <v>614.8771</v>
+        <v>616.1146</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21638.0401</v>
+        <v>21637.9695</v>
       </c>
       <c r="I4" s="1">
-        <v>600.7118</v>
+        <v>520.4942</v>
       </c>
       <c r="J4" s="1">
-        <v>22238.7519</v>
+        <v>22158.4637</v>
       </c>
       <c r="K4" s="1">
-        <v>19399.2882</v>
+        <v>19479.5058</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1924</v>
+        <v>12.2183</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>379.5034</v>
+        <v>378.7432</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-7982.4565</v>
+        <v>-8016.8039</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0795</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>14.6663</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E5" s="1">
-        <v>2205.9797</v>
+        <v>2210.4007</v>
       </c>
       <c r="F5" s="1">
-        <v>521.3612000000001</v>
+        <v>522.3998</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>32353.5597</v>
+        <v>32353.6346</v>
       </c>
       <c r="I5" s="1">
-        <v>2618.2553</v>
+        <v>2503.6903</v>
       </c>
       <c r="J5" s="1">
-        <v>34971.815</v>
+        <v>34857.325</v>
       </c>
       <c r="K5" s="1">
-        <v>27761.2481</v>
+        <v>27875.0529</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5845</v>
+        <v>12.6109</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7646.4403</v>
+        <v>-7677.0302</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0848</v>
+        <v>0.0839</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>14.701</v>
       </c>
       <c r="C6" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D6" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E6" s="1">
-        <v>2727.3409</v>
+        <v>2732.8004</v>
       </c>
       <c r="F6" s="1">
-        <v>673.7883</v>
+        <v>675.1442</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40094.6387</v>
+        <v>40094.5549</v>
       </c>
       <c r="I6" s="1">
-        <v>4971.815</v>
+        <v>4826.6601</v>
       </c>
       <c r="J6" s="1">
-        <v>45066.4537</v>
+        <v>44921.215</v>
       </c>
       <c r="K6" s="1">
-        <v>35407.6884</v>
+        <v>35552.0831</v>
       </c>
       <c r="L6" s="1">
-        <v>12.9825</v>
+        <v>13.0094</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9905.3613</v>
+        <v>-9945.2111</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0021</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>13.8109</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E7" s="1">
-        <v>3401.1292</v>
+        <v>3407.9446</v>
       </c>
       <c r="F7" s="1">
-        <v>943.2655</v>
+        <v>945.1494</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>46972.6549</v>
+        <v>46972.7228</v>
       </c>
       <c r="I7" s="1">
-        <v>5066.4537</v>
+        <v>4881.449</v>
       </c>
       <c r="J7" s="1">
-        <v>52039.1087</v>
+        <v>51854.1718</v>
       </c>
       <c r="K7" s="1">
-        <v>45313.0497</v>
+        <v>45497.2942</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3229</v>
+        <v>13.3504</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2454.6068</v>
+        <v>2459.5204</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10572.7383</v>
+        <v>-10620.0236</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.055</v>
+        <v>-0.0558</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>13.9322</v>
       </c>
       <c r="C8" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D8" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E8" s="1">
-        <v>4344.3946</v>
+        <v>4353.094</v>
       </c>
       <c r="F8" s="1">
-        <v>679.9375</v>
+        <v>681.3199</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60526.9751</v>
+        <v>60526.7244</v>
       </c>
       <c r="I8" s="1">
-        <v>4493.7155</v>
+        <v>4261.4254</v>
       </c>
       <c r="J8" s="1">
-        <v>65020.6906</v>
+        <v>64788.1498</v>
       </c>
       <c r="K8" s="1">
-        <v>58340.3948</v>
+        <v>58576.8382</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4289</v>
+        <v>13.4564</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9473.0249</v>
+        <v>-9511.293299999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0481</v>
+        <v>0.0474</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>12.5846</v>
       </c>
       <c r="C9" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D9" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E9" s="1">
-        <v>5024.3321</v>
+        <v>5034.4138</v>
       </c>
       <c r="F9" s="1">
-        <v>1193.5771</v>
+        <v>1169.7356</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>63229.21</v>
+        <v>63229.2169</v>
       </c>
       <c r="I9" s="1">
-        <v>5020.6906</v>
+        <v>4750.1322</v>
       </c>
       <c r="J9" s="1">
-        <v>68249.90059999999</v>
+        <v>67979.349</v>
       </c>
       <c r="K9" s="1">
-        <v>67813.4197</v>
+        <v>68088.1315</v>
       </c>
       <c r="L9" s="1">
-        <v>13.497</v>
+        <v>13.5245</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-15020.6906</v>
+        <v>-14750.1322</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.09030000000000001</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>12.2867</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E10" s="1">
-        <v>6217.9092</v>
+        <v>6204.1494</v>
       </c>
       <c r="F10" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>76397.5854</v>
+        <v>76075.9007</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76397.5854</v>
+        <v>76075.9007</v>
       </c>
       <c r="K10" s="1">
-        <v>82834.1103</v>
+        <v>82838.26360000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3219</v>
+        <v>13.3521</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2260.9495</v>
+        <v>2265.4862</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7739.0505</v>
+        <v>-7734.5138</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0237</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>13.0645</v>
       </c>
       <c r="C11" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D11" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E11" s="1">
-        <v>7031.7974</v>
+        <v>7016.4113</v>
       </c>
       <c r="F11" s="1">
-        <v>622.533</v>
+        <v>653.2414</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91866.9175</v>
+        <v>91482.7776</v>
       </c>
       <c r="I11" s="1">
-        <v>2260.9495</v>
+        <v>2265.4862</v>
       </c>
       <c r="J11" s="1">
-        <v>94127.86689999999</v>
+        <v>93748.2638</v>
       </c>
       <c r="K11" s="1">
-        <v>92834.1103</v>
+        <v>92838.26360000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.202</v>
+        <v>13.2316</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8133.0825</v>
+        <v>-8551.387000000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0895</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>13.8083</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E12" s="1">
-        <v>7654.3304</v>
+        <v>7669.6527</v>
       </c>
       <c r="F12" s="1">
-        <v>311.8928</v>
+        <v>312.5253</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>105693.291</v>
+        <v>105693.1832</v>
       </c>
       <c r="I12" s="1">
-        <v>4127.8669</v>
+        <v>3714.0993</v>
       </c>
       <c r="J12" s="1">
-        <v>109821.1579</v>
+        <v>109407.2825</v>
       </c>
       <c r="K12" s="1">
-        <v>100967.1928</v>
+        <v>101389.6506</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1909</v>
+        <v>13.2196</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-4306.709</v>
+        <v>-4324.0994</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0547</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>13.5636</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E13" s="1">
-        <v>7966.2232</v>
+        <v>7982.178</v>
       </c>
       <c r="F13" s="1">
-        <v>880.9855</v>
+        <v>882.7428</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>108050.6652</v>
+        <v>108050.7521</v>
       </c>
       <c r="I13" s="1">
-        <v>9821.1579</v>
+        <v>9389.9998</v>
       </c>
       <c r="J13" s="1">
-        <v>117871.8231</v>
+        <v>117440.752</v>
       </c>
       <c r="K13" s="1">
-        <v>105273.9018</v>
+        <v>105713.75</v>
       </c>
       <c r="L13" s="1">
-        <v>13.215</v>
+        <v>13.2437</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3444.4487</v>
+        <v>3451.3437</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8504.8861</v>
+        <v>-8545.837100000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0163</v>
+        <v>-0.0165</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>13.1788</v>
       </c>
       <c r="C14" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D14" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E14" s="1">
-        <v>8847.208699999999</v>
+        <v>8864.9208</v>
       </c>
       <c r="F14" s="1">
-        <v>-8847.208699999999</v>
+        <v>-8864.9208</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116595.5941</v>
+        <v>116594.9839</v>
       </c>
       <c r="I14" s="1">
-        <v>11316.2718</v>
+        <v>10844.1627</v>
       </c>
       <c r="J14" s="1">
-        <v>127911.8659</v>
+        <v>127439.1467</v>
       </c>
       <c r="K14" s="1">
-        <v>117223.2366</v>
+        <v>117710.9308</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2497</v>
+        <v>13.2783</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>116595.5941</v>
+        <v>116594.9839</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0003</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>11.8576</v>
       </c>
       <c r="C2" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D2" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>843.341</v>
+        <v>841.6517</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.5699</v>
       </c>
       <c r="C3" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E3" s="1">
-        <v>843.341</v>
+        <v>841.6517</v>
       </c>
       <c r="F3" s="1">
-        <v>751.7393</v>
+        <v>756.6201</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10600.7118</v>
+        <v>10558.3517</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10600.7118</v>
+        <v>10558.3517</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9449.288200000001</v>
+        <v>-9529.7063</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0601</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>13.5994</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E4" s="1">
-        <v>1595.0803</v>
+        <v>1598.2718</v>
       </c>
       <c r="F4" s="1">
-        <v>621.9476</v>
+        <v>623.1993</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21692.1352</v>
+        <v>21692.0644</v>
       </c>
       <c r="I4" s="1">
-        <v>550.7118</v>
+        <v>470.2937</v>
       </c>
       <c r="J4" s="1">
-        <v>22242.847</v>
+        <v>22162.3582</v>
       </c>
       <c r="K4" s="1">
-        <v>19449.2882</v>
+        <v>19529.7063</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1933</v>
+        <v>12.2193</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>379.5034</v>
+        <v>378.7432</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8078.6114</v>
+        <v>-8113.3444</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.07969999999999999</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>14.6663</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E5" s="1">
-        <v>2217.028</v>
+        <v>2221.4711</v>
       </c>
       <c r="F5" s="1">
-        <v>530.8363000000001</v>
+        <v>531.8938000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>32515.5971</v>
+        <v>32515.6724</v>
       </c>
       <c r="I5" s="1">
-        <v>2472.1004</v>
+        <v>2356.9494</v>
       </c>
       <c r="J5" s="1">
-        <v>34987.6975</v>
+        <v>34872.6218</v>
       </c>
       <c r="K5" s="1">
-        <v>27907.403</v>
+        <v>28021.7939</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5878</v>
+        <v>12.6141</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7785.4041</v>
+        <v>-7816.551</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0851</v>
+        <v>0.0843</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>14.701</v>
       </c>
       <c r="C6" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D6" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E6" s="1">
-        <v>2747.8642</v>
+        <v>2753.3648</v>
       </c>
       <c r="F6" s="1">
-        <v>687.4467</v>
+        <v>688.83</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>40396.3521</v>
+        <v>40396.2677</v>
       </c>
       <c r="I6" s="1">
-        <v>4686.6963</v>
+        <v>4540.3984</v>
       </c>
       <c r="J6" s="1">
-        <v>45083.0484</v>
+        <v>44936.666</v>
       </c>
       <c r="K6" s="1">
-        <v>35692.8072</v>
+        <v>35838.3449</v>
       </c>
       <c r="L6" s="1">
-        <v>12.9893</v>
+        <v>13.0162</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10106.1541</v>
+        <v>-10146.8107</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0021</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>13.8109</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E7" s="1">
-        <v>3435.3109</v>
+        <v>3442.1949</v>
       </c>
       <c r="F7" s="1">
-        <v>963.752</v>
+        <v>965.6769</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>47444.736</v>
+        <v>47444.8046</v>
       </c>
       <c r="I7" s="1">
-        <v>4580.5422</v>
+        <v>4393.5877</v>
       </c>
       <c r="J7" s="1">
-        <v>52025.2781</v>
+        <v>51838.3923</v>
       </c>
       <c r="K7" s="1">
-        <v>45798.9613</v>
+        <v>45985.1555</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3318</v>
+        <v>13.3593</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2473.0778</v>
+        <v>2478.0284</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10837.205</v>
+        <v>-10885.5878</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0555</v>
+        <v>-0.0564</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>13.9322</v>
       </c>
       <c r="C8" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D8" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E8" s="1">
-        <v>4399.063</v>
+        <v>4407.8718</v>
       </c>
       <c r="F8" s="1">
-        <v>701.2653</v>
+        <v>702.6907</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61288.6251</v>
+        <v>61288.3713</v>
       </c>
       <c r="I8" s="1">
-        <v>3743.3372</v>
+        <v>3507.9999</v>
       </c>
       <c r="J8" s="1">
-        <v>65031.9623</v>
+        <v>64796.3712</v>
       </c>
       <c r="K8" s="1">
-        <v>59109.2441</v>
+        <v>59348.7717</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4368</v>
+        <v>13.4643</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9770.168799999999</v>
+        <v>-9809.632799999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0485</v>
+        <v>0.0478</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>12.5846</v>
       </c>
       <c r="C9" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D9" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E9" s="1">
-        <v>5100.3283</v>
+        <v>5110.5625</v>
       </c>
       <c r="F9" s="1">
-        <v>1110.3387</v>
+        <v>1086.3271</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>64185.5915</v>
+        <v>64185.5984</v>
       </c>
       <c r="I9" s="1">
-        <v>3973.1684</v>
+        <v>3698.3671</v>
       </c>
       <c r="J9" s="1">
-        <v>68158.7599</v>
+        <v>67883.96550000001</v>
       </c>
       <c r="K9" s="1">
-        <v>68879.41280000001</v>
+        <v>69158.4045</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5049</v>
+        <v>13.5324</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-13973.1684</v>
+        <v>-13698.3671</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0916</v>
+        <v>-0.0924</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>12.2867</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E10" s="1">
-        <v>6210.667</v>
+        <v>6196.8896</v>
       </c>
       <c r="F10" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>76308.60219999999</v>
+        <v>75986.87940000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76308.60219999999</v>
+        <v>75986.87940000001</v>
       </c>
       <c r="K10" s="1">
-        <v>82852.58130000001</v>
+        <v>82856.77159999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3404</v>
+        <v>13.3707</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2295.1477</v>
+        <v>2299.7531</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7704.8523</v>
+        <v>-7700.2469</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0237</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>13.0645</v>
       </c>
       <c r="C11" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D11" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E11" s="1">
-        <v>7024.5552</v>
+        <v>7009.1515</v>
       </c>
       <c r="F11" s="1">
-        <v>804.3142</v>
+        <v>835.3896</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>91772.3012</v>
+        <v>91388.1204</v>
       </c>
       <c r="I11" s="1">
-        <v>2295.1477</v>
+        <v>2299.7531</v>
       </c>
       <c r="J11" s="1">
-        <v>94067.4489</v>
+        <v>93687.8735</v>
       </c>
       <c r="K11" s="1">
-        <v>92852.58130000001</v>
+        <v>92856.77159999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2183</v>
+        <v>13.2479</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10507.9629</v>
+        <v>-10935.8346</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.08989999999999999</v>
+        <v>0.0896</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>13.8083</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E12" s="1">
-        <v>7828.8694</v>
+        <v>7844.5411</v>
       </c>
       <c r="F12" s="1">
-        <v>339.5268</v>
+        <v>340.2148</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>108103.3771</v>
+        <v>108103.2669</v>
       </c>
       <c r="I12" s="1">
-        <v>1787.1849</v>
+        <v>1363.9185</v>
       </c>
       <c r="J12" s="1">
-        <v>109890.562</v>
+        <v>109467.1855</v>
       </c>
       <c r="K12" s="1">
-        <v>103360.5441</v>
+        <v>103792.6062</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2025</v>
+        <v>13.2312</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-4688.2883</v>
+        <v>-4707.2124</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.056</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>13.5636</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E13" s="1">
-        <v>8168.3962</v>
+        <v>8184.7559</v>
       </c>
       <c r="F13" s="1">
-        <v>926.2117</v>
+        <v>928.0594</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>110792.8588</v>
+        <v>110792.948</v>
       </c>
       <c r="I13" s="1">
-        <v>7098.8966</v>
+        <v>6656.7062</v>
       </c>
       <c r="J13" s="1">
-        <v>117891.7554</v>
+        <v>117449.6542</v>
       </c>
       <c r="K13" s="1">
-        <v>108048.8324</v>
+        <v>108499.8186</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2277</v>
+        <v>13.2563</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3522.9912</v>
+        <v>3530.0435</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9039.7737</v>
+        <v>-9083.025900000001</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0167</v>
+        <v>-0.0169</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>13.1788</v>
       </c>
       <c r="C14" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D14" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E14" s="1">
-        <v>9094.607900000001</v>
+        <v>9112.8153</v>
       </c>
       <c r="F14" s="1">
-        <v>-9094.607900000001</v>
+        <v>-9112.8153</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119856.0186</v>
+        <v>119855.3914</v>
       </c>
       <c r="I14" s="1">
-        <v>8059.1229</v>
+        <v>7573.6803</v>
       </c>
       <c r="J14" s="1">
-        <v>127915.1415</v>
+        <v>127429.0717</v>
       </c>
       <c r="K14" s="1">
-        <v>120611.5973</v>
+        <v>121112.8879</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2619</v>
+        <v>13.2904</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119856.0186</v>
+        <v>119855.3914</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0002</v>
+        <v>-0.0002</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>11.8576</v>
       </c>
       <c r="C2" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D2" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>843.341</v>
+        <v>841.6517</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.5699</v>
       </c>
       <c r="C3" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E3" s="1">
-        <v>843.341</v>
+        <v>841.6517</v>
       </c>
       <c r="F3" s="1">
-        <v>755.7171</v>
+        <v>760.6059</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10600.7118</v>
+        <v>10558.3517</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10600.7118</v>
+        <v>10558.3517</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9499.288200000001</v>
+        <v>-9579.906800000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0601</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>13.5994</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E4" s="1">
-        <v>1599.0581</v>
+        <v>1602.2575</v>
       </c>
       <c r="F4" s="1">
-        <v>629.0549</v>
+        <v>630.3208</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21746.2303</v>
+        <v>21746.1594</v>
       </c>
       <c r="I4" s="1">
-        <v>500.7118</v>
+        <v>420.0932</v>
       </c>
       <c r="J4" s="1">
-        <v>22246.9421</v>
+        <v>22166.2526</v>
       </c>
       <c r="K4" s="1">
-        <v>19499.2882</v>
+        <v>19579.9068</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1942</v>
+        <v>12.2202</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>379.5034</v>
+        <v>378.7432</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8175.2663</v>
+        <v>-8210.3868</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0799</v>
+        <v>0.07820000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>14.6663</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E5" s="1">
-        <v>2228.113</v>
+        <v>2232.5784</v>
       </c>
       <c r="F5" s="1">
-        <v>540.4114</v>
+        <v>541.4880000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32678.1738</v>
+        <v>32678.2494</v>
       </c>
       <c r="I5" s="1">
-        <v>2325.4455</v>
+        <v>2209.7064</v>
       </c>
       <c r="J5" s="1">
-        <v>35003.6193</v>
+        <v>34887.9558</v>
       </c>
       <c r="K5" s="1">
-        <v>28054.0579</v>
+        <v>28169.0369</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5909</v>
+        <v>12.6173</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7925.8362</v>
+        <v>-7957.5459</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.08550000000000001</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>14.701</v>
       </c>
       <c r="C6" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D6" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E6" s="1">
-        <v>2768.5244</v>
+        <v>2774.0664</v>
       </c>
       <c r="F6" s="1">
-        <v>701.311</v>
+        <v>702.7221</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>40700.0778</v>
+        <v>40699.9927</v>
       </c>
       <c r="I6" s="1">
-        <v>4399.6093</v>
+        <v>4252.1605</v>
       </c>
       <c r="J6" s="1">
-        <v>45099.6871</v>
+        <v>44952.1532</v>
       </c>
       <c r="K6" s="1">
-        <v>35979.8942</v>
+        <v>36126.5828</v>
       </c>
       <c r="L6" s="1">
-        <v>12.9961</v>
+        <v>13.023</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10309.9723</v>
+        <v>-10351.4477</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0021</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>13.8109</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E7" s="1">
-        <v>3469.8354</v>
+        <v>3476.7885</v>
       </c>
       <c r="F7" s="1">
-        <v>984.6282</v>
+        <v>986.5948</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>47921.5496</v>
+        <v>47921.6189</v>
       </c>
       <c r="I7" s="1">
-        <v>4089.637</v>
+        <v>3900.7127</v>
       </c>
       <c r="J7" s="1">
-        <v>52011.1866</v>
+        <v>51822.3316</v>
       </c>
       <c r="K7" s="1">
-        <v>46289.8665</v>
+        <v>46478.0305</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3407</v>
+        <v>13.3681</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2491.672</v>
+        <v>2496.6598</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11106.929</v>
+        <v>-11156.4306</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0561</v>
+        <v>-0.057</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>13.9322</v>
       </c>
       <c r="C8" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D8" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E8" s="1">
-        <v>4454.4635</v>
+        <v>4463.3833</v>
       </c>
       <c r="F8" s="1">
-        <v>723.136</v>
+        <v>724.6055</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>62060.477</v>
+        <v>62060.22</v>
       </c>
       <c r="I8" s="1">
-        <v>2982.708</v>
+        <v>2744.2821</v>
       </c>
       <c r="J8" s="1">
-        <v>65043.185</v>
+        <v>64804.5021</v>
       </c>
       <c r="K8" s="1">
-        <v>59888.4675</v>
+        <v>60131.1209</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4446</v>
+        <v>13.4721</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10074.8751</v>
+        <v>-10115.5651</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0489</v>
+        <v>0.0482</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>12.5846</v>
       </c>
       <c r="C9" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D9" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E9" s="1">
-        <v>5177.5995</v>
+        <v>5187.9888</v>
       </c>
       <c r="F9" s="1">
-        <v>1025.6848</v>
+        <v>1001.5002</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>65158.019</v>
+        <v>65158.026</v>
       </c>
       <c r="I9" s="1">
-        <v>2907.8329</v>
+        <v>2628.717</v>
       </c>
       <c r="J9" s="1">
-        <v>68065.85189999999</v>
+        <v>67786.743</v>
       </c>
       <c r="K9" s="1">
-        <v>69963.3425</v>
+        <v>70246.686</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5127</v>
+        <v>13.5403</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-12907.8329</v>
+        <v>-12628.717</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.093</v>
+        <v>-0.09379999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>12.2867</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E10" s="1">
-        <v>6203.2843</v>
+        <v>6189.4889</v>
       </c>
       <c r="F10" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>76217.89350000001</v>
+        <v>75896.1323</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>76217.89350000001</v>
+        <v>75896.1323</v>
       </c>
       <c r="K10" s="1">
-        <v>82871.17539999999</v>
+        <v>82875.40300000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3592</v>
+        <v>13.3897</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2329.9198</v>
+        <v>2334.5949</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7670.0802</v>
+        <v>-7665.4051</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0237</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>13.0645</v>
       </c>
       <c r="C11" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D11" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E11" s="1">
-        <v>7017.1725</v>
+        <v>7001.7508</v>
       </c>
       <c r="F11" s="1">
-        <v>943.7728</v>
+        <v>942.2411</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>91675.85030000001</v>
+        <v>91291.62820000001</v>
       </c>
       <c r="I11" s="1">
-        <v>2329.9198</v>
+        <v>2334.5949</v>
       </c>
       <c r="J11" s="1">
-        <v>94005.77009999999</v>
+        <v>93626.22319999999</v>
       </c>
       <c r="K11" s="1">
-        <v>92871.17539999999</v>
+        <v>92875.40300000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2348</v>
+        <v>13.2646</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12329.9198</v>
+        <v>-12334.5949</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.09030000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>13.8083</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E12" s="1">
-        <v>7960.9453</v>
+        <v>7943.9919</v>
       </c>
       <c r="F12" s="1">
-        <v>415.7808</v>
+        <v>449.5111</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>109927.1212</v>
+        <v>109473.7692</v>
       </c>
       <c r="I12" s="1">
         <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>109927.1212</v>
+        <v>109473.7692</v>
       </c>
       <c r="K12" s="1">
-        <v>105201.0952</v>
+        <v>105209.998</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2146</v>
+        <v>13.244</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5741.2255</v>
+        <v>-6219.4355</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0569</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>13.5636</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E13" s="1">
-        <v>8376.7261</v>
+        <v>8393.503000000001</v>
       </c>
       <c r="F13" s="1">
-        <v>973.6698</v>
+        <v>975.6124</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>113618.5618</v>
+        <v>113618.6532</v>
       </c>
       <c r="I13" s="1">
-        <v>4258.7745</v>
+        <v>3780.5645</v>
       </c>
       <c r="J13" s="1">
-        <v>117877.3363</v>
+        <v>117399.2178</v>
       </c>
       <c r="K13" s="1">
-        <v>110942.3207</v>
+        <v>111429.4334</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2441</v>
+        <v>13.2757</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3582.4254</v>
+        <v>3574.7964</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-9624.0429</v>
+        <v>-9684.5563</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0171</v>
+        <v>-0.0174</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>13.1788</v>
       </c>
       <c r="C14" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D14" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E14" s="1">
-        <v>9350.3959</v>
+        <v>9369.115400000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9350.3959</v>
+        <v>-9369.115400000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123226.9978</v>
+        <v>123226.3529</v>
       </c>
       <c r="I14" s="1">
-        <v>4634.7316</v>
+        <v>4096.0082</v>
       </c>
       <c r="J14" s="1">
-        <v>127861.7293</v>
+        <v>127322.3611</v>
       </c>
       <c r="K14" s="1">
-        <v>124148.7891</v>
+        <v>124688.7861</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2774</v>
+        <v>13.3085</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>123226.9978</v>
+        <v>123226.3529</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0001</v>
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>11.8576</v>
       </c>
       <c r="C2" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D2" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>843.341</v>
+        <v>841.6517</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.5699</v>
       </c>
       <c r="C3" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E3" s="1">
-        <v>843.341</v>
+        <v>841.6517</v>
       </c>
       <c r="F3" s="1">
-        <v>759.6948</v>
+        <v>764.5916</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10600.7118</v>
+        <v>10558.3517</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10600.7118</v>
+        <v>10558.3517</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9549.288200000001</v>
+        <v>-9630.1072</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0601</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>13.5994</v>
       </c>
       <c r="C4" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D4" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E4" s="1">
-        <v>1603.0358</v>
+        <v>1606.2432</v>
       </c>
       <c r="F4" s="1">
-        <v>636.199</v>
+        <v>637.4792</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21800.3254</v>
+        <v>21800.2543</v>
       </c>
       <c r="I4" s="1">
-        <v>450.7118</v>
+        <v>369.8928</v>
       </c>
       <c r="J4" s="1">
-        <v>22251.0372</v>
+        <v>22170.147</v>
       </c>
       <c r="K4" s="1">
-        <v>19549.2882</v>
+        <v>19630.1072</v>
       </c>
       <c r="L4" s="1">
-        <v>12.1952</v>
+        <v>12.2211</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>379.5034</v>
+        <v>378.7432</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8272.421200000001</v>
+        <v>-8307.9313</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0801</v>
+        <v>0.0784</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>14.6663</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E5" s="1">
-        <v>2239.2348</v>
+        <v>2243.7225</v>
       </c>
       <c r="F5" s="1">
-        <v>550.0872000000001</v>
+        <v>551.1832000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>32841.2896</v>
+        <v>32841.3657</v>
       </c>
       <c r="I5" s="1">
-        <v>2178.2906</v>
+        <v>2061.9614</v>
       </c>
       <c r="J5" s="1">
-        <v>35019.5802</v>
+        <v>34903.3271</v>
       </c>
       <c r="K5" s="1">
-        <v>28201.2128</v>
+        <v>28316.7818</v>
       </c>
       <c r="L5" s="1">
-        <v>12.5941</v>
+        <v>12.6204</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8067.7441</v>
+        <v>-8100.0225</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0858</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>14.701</v>
       </c>
       <c r="C6" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D6" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E6" s="1">
-        <v>2789.322</v>
+        <v>2794.9056</v>
       </c>
       <c r="F6" s="1">
-        <v>715.383</v>
+        <v>716.8224</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41005.8232</v>
+        <v>41005.7375</v>
       </c>
       <c r="I6" s="1">
-        <v>4110.5465</v>
+        <v>3961.9389</v>
       </c>
       <c r="J6" s="1">
-        <v>45116.3697</v>
+        <v>44967.6764</v>
       </c>
       <c r="K6" s="1">
-        <v>36268.957</v>
+        <v>36416.8044</v>
       </c>
       <c r="L6" s="1">
-        <v>13.0028</v>
+        <v>13.0297</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10516.846</v>
+        <v>-10559.1526</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0021</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>13.8109</v>
       </c>
       <c r="C7" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D7" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E7" s="1">
-        <v>3504.7051</v>
+        <v>3511.728</v>
       </c>
       <c r="F7" s="1">
-        <v>984.2732999999999</v>
+        <v>968.5074</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>48403.1313</v>
+        <v>48403.2012</v>
       </c>
       <c r="I7" s="1">
-        <v>3593.7004</v>
+        <v>3402.7863</v>
       </c>
       <c r="J7" s="1">
-        <v>51996.8317</v>
+        <v>51805.9875</v>
       </c>
       <c r="K7" s="1">
-        <v>46785.803</v>
+        <v>46975.957</v>
       </c>
       <c r="L7" s="1">
-        <v>13.3494</v>
+        <v>13.3769</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>2510.3898</v>
+        <v>2515.4151</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11083.3106</v>
+        <v>-10887.3712</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0566</v>
+        <v>-0.0575</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>13.9322</v>
       </c>
       <c r="C8" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D8" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E8" s="1">
-        <v>4488.9784</v>
+        <v>4480.2354</v>
       </c>
       <c r="F8" s="1">
-        <v>767.1866</v>
+        <v>786.4764</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>62541.3448</v>
+        <v>62294.5375</v>
       </c>
       <c r="I8" s="1">
-        <v>2510.3898</v>
+        <v>2515.4151</v>
       </c>
       <c r="J8" s="1">
-        <v>65051.7346</v>
+        <v>64809.9526</v>
       </c>
       <c r="K8" s="1">
-        <v>60379.5034</v>
+        <v>60378.7432</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4506</v>
+        <v>13.4767</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10688.5971</v>
+        <v>-10979.2898</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0493</v>
+        <v>0.0486</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>12.5846</v>
       </c>
       <c r="C9" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D9" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E9" s="1">
-        <v>5256.165</v>
+        <v>5266.7119</v>
       </c>
       <c r="F9" s="1">
-        <v>939.3857</v>
+        <v>914.8539</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>66146.734</v>
+        <v>66146.7411</v>
       </c>
       <c r="I9" s="1">
-        <v>1821.7927</v>
+        <v>1536.1253</v>
       </c>
       <c r="J9" s="1">
-        <v>67968.5267</v>
+        <v>67682.8664</v>
       </c>
       <c r="K9" s="1">
-        <v>71068.10060000001</v>
+        <v>71358.033</v>
       </c>
       <c r="L9" s="1">
-        <v>13.5209</v>
+        <v>13.5489</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11821.7927</v>
+        <v>-11536.1253</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0944</v>
+        <v>-0.0953</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>12.2867</v>
       </c>
       <c r="C10" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D10" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E10" s="1">
-        <v>6195.5506</v>
+        <v>6181.5658</v>
       </c>
       <c r="F10" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>76122.87209999999</v>
+        <v>75798.9783</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>76122.87209999999</v>
+        <v>75798.9783</v>
       </c>
       <c r="K10" s="1">
-        <v>82889.8933</v>
+        <v>82894.1583</v>
       </c>
       <c r="L10" s="1">
-        <v>13.3789</v>
+        <v>13.4099</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2365.2742</v>
+        <v>2370.0203</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7634.7258</v>
+        <v>-7629.9797</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0237</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>13.0645</v>
       </c>
       <c r="C11" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D11" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E11" s="1">
-        <v>7009.4388</v>
+        <v>6993.8277</v>
       </c>
       <c r="F11" s="1">
-        <v>946.479</v>
+        <v>944.9472</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>91574.8137</v>
+        <v>91188.32339999999</v>
       </c>
       <c r="I11" s="1">
-        <v>2365.2742</v>
+        <v>2370.0203</v>
       </c>
       <c r="J11" s="1">
-        <v>93940.0879</v>
+        <v>93558.3438</v>
       </c>
       <c r="K11" s="1">
-        <v>92889.8933</v>
+        <v>92894.1583</v>
       </c>
       <c r="L11" s="1">
-        <v>13.2521</v>
+        <v>13.2823</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12365.2742</v>
+        <v>-12370.0203</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.09080000000000001</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>13.8083</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E12" s="1">
-        <v>7955.9178</v>
+        <v>7938.7749</v>
       </c>
       <c r="F12" s="1">
-        <v>635.4819</v>
+        <v>669.8317</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>109857.6996</v>
+        <v>109401.8757</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>109857.6996</v>
+        <v>109401.8757</v>
       </c>
       <c r="K12" s="1">
-        <v>105255.1675</v>
+        <v>105264.1787</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2298</v>
+        <v>13.2595</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8774.9254</v>
+        <v>-9267.7909</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0569</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>13.5636</v>
       </c>
       <c r="C13" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D13" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E13" s="1">
-        <v>8591.3997</v>
+        <v>8608.606599999999</v>
       </c>
       <c r="F13" s="1">
-        <v>827.5882</v>
+        <v>789.6672</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>116530.3094</v>
+        <v>116530.4032</v>
       </c>
       <c r="I13" s="1">
-        <v>1225.0746</v>
+        <v>732.2091</v>
       </c>
       <c r="J13" s="1">
-        <v>117755.3841</v>
+        <v>117262.6123</v>
       </c>
       <c r="K13" s="1">
-        <v>114030.0929</v>
+        <v>114531.9696</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2726</v>
+        <v>13.3044</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3580.163</v>
+        <v>3572.4487</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7644.9116</v>
+        <v>-7159.7603</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0175</v>
+        <v>-0.0179</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>13.1788</v>
       </c>
       <c r="C14" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D14" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E14" s="1">
-        <v>9418.9879</v>
+        <v>9398.273800000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9418.9879</v>
+        <v>-9398.273800000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124130.9575</v>
+        <v>123609.8564</v>
       </c>
       <c r="I14" s="1">
-        <v>3580.163</v>
+        <v>3572.4487</v>
       </c>
       <c r="J14" s="1">
-        <v>127711.1205</v>
+        <v>127182.3051</v>
       </c>
       <c r="K14" s="1">
-        <v>125255.1675</v>
+        <v>125264.1787</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2982</v>
+        <v>13.3284</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124130.9575</v>
+        <v>123609.8564</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0003</v>
+        <v>-0.0005999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.314</v>
+        <v>13.3407</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2497</v>
+        <v>13.2783</v>
       </c>
       <c r="E3" s="1">
-        <v>13.2619</v>
+        <v>13.2904</v>
       </c>
       <c r="F3" s="1">
-        <v>13.2774</v>
+        <v>13.3085</v>
       </c>
       <c r="G3" s="1">
-        <v>13.2982</v>
+        <v>13.3284</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1248</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2373</v>
+        <v>0.2248</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2338</v>
+        <v>0.2224</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2341</v>
+        <v>0.2225</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2338</v>
+        <v>0.2217</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2326</v>
+        <v>0.2205</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1929</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2022</v>
+        <v>0.2008</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1946</v>
+        <v>0.1938</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1963</v>
+        <v>0.1954</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1979</v>
+        <v>0.1971</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1994</v>
+        <v>0.1986</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.5415</v>
       </c>
       <c r="C6" s="4">
-        <v>1.0731</v>
+        <v>1.0186</v>
       </c>
       <c r="D6" s="4">
-        <v>1.0972</v>
+        <v>1.0426</v>
       </c>
       <c r="E6" s="4">
-        <v>1.0891</v>
+        <v>1.0342</v>
       </c>
       <c r="F6" s="4">
-        <v>1.0787</v>
+        <v>1.0217</v>
       </c>
       <c r="G6" s="4">
-        <v>1.0644</v>
+        <v>1.0079</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1239</v>
+        <v>0.1154</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1326</v>
+        <v>0.1242</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1307</v>
+        <v>0.1221</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1279</v>
+        <v>0.1187</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1243</v>
+        <v>0.1155</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>8981.897999999999</v>
+        <v>8963.6837</v>
       </c>
       <c r="D8" s="1">
-        <v>8539.508400000001</v>
+        <v>8555.0936</v>
       </c>
       <c r="E8" s="1">
-        <v>8670.7202</v>
+        <v>8686.5682</v>
       </c>
       <c r="F8" s="1">
-        <v>8783.5206</v>
+        <v>8784.7943</v>
       </c>
       <c r="G8" s="1">
-        <v>8835.3305</v>
+        <v>8836.627399999999</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P16_KFSDIV.xlsx
+++ b/output/1Y_P16_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>10574.3514</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0166</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0973</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0663</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.036</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
